--- a/public/uploads/UploadTemplatev2.xlsx
+++ b/public/uploads/UploadTemplatev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2591CA13-FCBC-437B-A8DF-2E49C05D8C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4DA14-D9E3-4FF3-9323-29D397E49112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -260,9 +260,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -597,7 +594,7 @@
   <dimension ref="B1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -675,7 +672,7 @@
       <c r="J2" s="3">
         <v>616</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="3">
         <v>1253</v>
       </c>
       <c r="L2">
@@ -710,7 +707,7 @@
       <c r="J3" s="3">
         <v>812</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="3">
         <v>1891</v>
       </c>
       <c r="L3">
@@ -745,7 +742,7 @@
       <c r="J4" s="3">
         <v>612</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="3">
         <v>1315</v>
       </c>
       <c r="L4">
@@ -780,7 +777,7 @@
       <c r="J5" s="3">
         <v>1276</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="3">
         <v>1477</v>
       </c>
       <c r="L5">
@@ -815,7 +812,7 @@
       <c r="J6" s="3">
         <v>728</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="3">
         <v>1978</v>
       </c>
       <c r="L6">
@@ -850,7 +847,7 @@
       <c r="J7" s="3">
         <v>900</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="3">
         <v>1632</v>
       </c>
       <c r="L7">
@@ -885,7 +882,7 @@
       <c r="J8" s="3">
         <v>576</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="3">
         <v>1465</v>
       </c>
       <c r="L8">
@@ -920,7 +917,7 @@
       <c r="J9" s="3">
         <v>472</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="3">
         <v>1287</v>
       </c>
       <c r="L9">
@@ -955,7 +952,7 @@
       <c r="J10" s="3">
         <v>652</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="3">
         <v>1311</v>
       </c>
       <c r="L10">
@@ -990,7 +987,7 @@
       <c r="J11" s="3">
         <v>624</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="3">
         <v>1178</v>
       </c>
       <c r="L11">
@@ -1025,7 +1022,7 @@
       <c r="J12" s="3">
         <v>576</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="3">
         <v>1049</v>
       </c>
       <c r="L12">
@@ -1060,7 +1057,7 @@
       <c r="J13" s="3">
         <v>576</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="3">
         <v>1906</v>
       </c>
       <c r="L13">
@@ -1281,7 +1278,7 @@
   <dimension ref="B1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1339,22 +1336,22 @@
       <c r="F2" s="3">
         <v>1450</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="3">
         <v>1783</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="3">
         <v>890</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="3">
         <v>479</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="3">
         <v>890</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="3">
         <v>0</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="3">
         <v>765</v>
       </c>
     </row>
@@ -1370,8 +1367,8 @@
   </sheetPr>
   <dimension ref="B1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1399,16 +1396,16 @@
     </row>
     <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="E2" s="3">
-        <v>6</v>
-      </c>
-      <c r="F2" s="13">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="3">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1418,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1434,10 +1431,7 @@
     <col min="5" max="6" width="14.1796875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>3</v>
-      </c>
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
@@ -1454,319 +1448,319 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10">
         <v>45292</v>
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C25" ca="1" si="0">4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-        <v>5048</v>
+        <v>4112</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D25" ca="1" si="1">4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-        <v>4260</v>
+        <v>3528</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E25" ca="1" si="2">4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-        <v>2864</v>
+        <v>2960</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F25" ca="1" si="3">4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-        <v>724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10">
         <v>45323</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2764</v>
+        <v>6496</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5168</v>
+        <v>1860</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2992</v>
+        <v>2392</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10">
         <v>45352</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2980</v>
+        <v>5868</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1812</v>
+        <v>2604</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>45383</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2500</v>
+        <v>3748</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2132</v>
+        <v>2276</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1956</v>
+        <v>1944</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>45413</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5292</v>
+        <v>3236</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2284</v>
+        <v>2208</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>812</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10">
         <v>45444</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5004</v>
+        <v>7464</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4212</v>
+        <v>392</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2328</v>
+        <v>2988</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10">
         <v>45474</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6540</v>
+        <v>6680</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1544</v>
+        <v>2860</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2172</v>
+        <v>700</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>45505</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4660</v>
+        <v>6548</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1924</v>
+        <v>2280</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1636</v>
+        <v>920</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10">
         <v>45536</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8252</v>
+        <v>5644</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3504</v>
+        <v>6844</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2784</v>
+        <v>1188</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10">
         <v>45566</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7168</v>
+        <v>5392</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2056</v>
+        <v>2688</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2812</v>
+        <v>1484</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>45597</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4772</v>
+        <v>5332</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2164</v>
+        <v>3436</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2052</v>
+        <v>2676</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>828</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>45627</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4676</v>
+        <v>3916</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2708</v>
+        <v>3784</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2452</v>
+        <v>3768</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>45658</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2988</v>
+        <v>5828</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2688</v>
+        <v>1756</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2612</v>
+        <v>2728</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>45689</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4044</v>
+        <v>2964</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4216</v>
+        <v>4076</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1712</v>
+        <v>1644</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>45717</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4904</v>
+        <v>6472</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2024</v>
+        <v>1892</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2356</v>
+        <v>3308</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>624</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1775,19 +1769,19 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6768</v>
+        <v>4952</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3564</v>
+        <v>4696</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2728</v>
+        <v>2116</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>688</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1796,19 +1790,19 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5588</v>
+        <v>5080</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2668</v>
+        <v>3680</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2720</v>
+        <v>1476</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>952</v>
+        <v>860</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1817,19 +1811,19 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4288</v>
+        <v>6060</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3664</v>
+        <v>2580</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2960</v>
+        <v>2980</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>540</v>
+        <v>724</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1838,19 +1832,19 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6548</v>
+        <v>6040</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5616</v>
+        <v>5376</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2708</v>
+        <v>984</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>824</v>
+        <v>976</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1859,19 +1853,19 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3900</v>
+        <v>3028</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2556</v>
+        <v>2012</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2344</v>
+        <v>1924</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>792</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1880,19 +1874,19 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3988</v>
+        <v>6104</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2472</v>
+        <v>2688</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2184</v>
+        <v>2676</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1048</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1901,19 +1895,19 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3800</v>
+        <v>2708</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4508</v>
+        <v>3480</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1892</v>
+        <v>2880</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>832</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1922,19 +1916,19 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3884</v>
+        <v>3648</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3032</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2572</v>
+        <v>3120</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>960</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1943,19 +1937,19 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7756</v>
+        <v>7320</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4036</v>
+        <v>4480</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1608</v>
+        <v>3596</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1032</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2051,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="B1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2068,10 +2062,7 @@
     <col min="3" max="6" width="14.1796875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>2</v>
-      </c>
+    <row r="1" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="5"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -2086,7 +2077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
         <v>150</v>
       </c>
@@ -2112,7 +2103,7 @@
   </sheetPr>
   <dimension ref="C1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/public/uploads/UploadTemplatev2.xlsx
+++ b/public/uploads/UploadTemplatev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4DA14-D9E3-4FF3-9323-29D397E49112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7250A483-B62C-4E6D-ADA0-98D8C36AAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
@@ -1367,8 +1367,8 @@
   </sheetPr>
   <dimension ref="B1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1396,16 +1396,16 @@
     </row>
     <row r="2" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D2" s="3">
-        <v>67</v>
+        <v>450</v>
       </c>
       <c r="E2" s="3">
-        <v>52</v>
+        <v>330</v>
       </c>
       <c r="F2" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1454,19 +1454,19 @@
       </c>
       <c r="C2" s="3">
         <f t="shared" ref="C2:C25" ca="1" si="0">4*MAX(0,ROUND(NORMINV(RAND(),1236,365),0))</f>
-        <v>4112</v>
+        <v>5356</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D25" ca="1" si="1">4*MAX(0,ROUND(NORMINV(RAND(),745,365),0))</f>
-        <v>3528</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E25" ca="1" si="2">4*MAX(0,ROUND(NORMINV(RAND(),586,163),0))</f>
-        <v>2960</v>
+        <v>2212</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F25" ca="1" si="3">4*MAX(0,ROUND(NORMINV(RAND(),189,50),0))</f>
-        <v>588</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1475,19 +1475,19 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6496</v>
+        <v>4284</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1860</v>
+        <v>3792</v>
       </c>
       <c r="E3" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2392</v>
+        <v>2484</v>
       </c>
       <c r="F3" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>660</v>
+        <v>940</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5868</v>
+        <v>3712</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>620</v>
+        <v>1380</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2604</v>
+        <v>2436</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>880</v>
+        <v>856</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1517,19 +1517,19 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3748</v>
+        <v>4252</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2276</v>
+        <v>3528</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1944</v>
+        <v>2200</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>428</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1538,19 +1538,19 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3236</v>
+        <v>4404</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4288</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2208</v>
+        <v>3496</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>960</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1559,19 +1559,19 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7464</v>
+        <v>5248</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>392</v>
+        <v>2704</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2988</v>
+        <v>2096</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>844</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1580,19 +1580,19 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6680</v>
+        <v>5856</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2860</v>
+        <v>2604</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>700</v>
+        <v>1064</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1100</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1601,19 +1601,19 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6548</v>
+        <v>5412</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2280</v>
+        <v>5104</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>920</v>
+        <v>1368</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>572</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1622,19 +1622,19 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5644</v>
+        <v>6740</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6844</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1188</v>
+        <v>3652</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>752</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1643,19 +1643,19 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5392</v>
+        <v>3740</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2688</v>
+        <v>4172</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1484</v>
+        <v>2464</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>472</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1664,19 +1664,19 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5332</v>
+        <v>3624</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3436</v>
+        <v>2108</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2676</v>
+        <v>3084</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>736</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1685,19 +1685,19 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3916</v>
+        <v>6152</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3784</v>
+        <v>1756</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3768</v>
+        <v>1992</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1040</v>
+        <v>908</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1706,19 +1706,19 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5828</v>
+        <v>3420</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1756</v>
+        <v>736</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2728</v>
+        <v>1932</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>492</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1727,19 +1727,19 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2964</v>
+        <v>6336</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4076</v>
+        <v>3132</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1644</v>
+        <v>1408</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>856</v>
+        <v>872</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1748,19 +1748,19 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6472</v>
+        <v>6248</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1892</v>
+        <v>6172</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3308</v>
+        <v>3040</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>452</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1769,19 +1769,19 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4952</v>
+        <v>3976</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4696</v>
+        <v>6896</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2116</v>
+        <v>3328</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1056</v>
+        <v>872</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1790,19 +1790,19 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5080</v>
+        <v>5676</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3680</v>
+        <v>2272</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1476</v>
+        <v>748</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>860</v>
+        <v>944</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1811,19 +1811,19 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6060</v>
+        <v>3672</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2580</v>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2980</v>
+        <v>1756</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>724</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1832,19 +1832,19 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6040</v>
+        <v>5452</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5376</v>
+        <v>3548</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>984</v>
+        <v>3180</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>976</v>
+        <v>784</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3028</v>
+        <v>6884</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2012</v>
+        <v>2632</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1924</v>
+        <v>2268</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1874,19 +1874,19 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6104</v>
+        <v>4392</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2688</v>
+        <v>4104</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2676</v>
+        <v>3184</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>524</v>
+        <v>952</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1895,19 +1895,19 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2708</v>
+        <v>3780</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3480</v>
+        <v>4228</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2880</v>
+        <v>1044</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>380</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1916,19 +1916,19 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3648</v>
+        <v>4540</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3000</v>
+        <v>2472</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3120</v>
+        <v>3092</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>596</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1937,19 +1937,19 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7320</v>
+        <v>5888</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4480</v>
+        <v>2456</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3596</v>
+        <v>1892</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>888</v>
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2103,7 @@
   </sheetPr>
   <dimension ref="C1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/public/uploads/UploadTemplatev2.xlsx
+++ b/public/uploads/UploadTemplatev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7250A483-B62C-4E6D-ADA0-98D8C36AAF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF8AFF1-8CAD-44F5-8FEB-D4C4444CA4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
